--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf1-Cd44.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.384145666666667</v>
+        <v>0.8775636666666666</v>
       </c>
       <c r="H2">
-        <v>4.152437</v>
+        <v>2.632691</v>
       </c>
       <c r="I2">
-        <v>0.1014617184198512</v>
+        <v>0.1887436506618166</v>
       </c>
       <c r="J2">
-        <v>0.1334061399754118</v>
+        <v>0.2083714858314108</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N2">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O2">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P2">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q2">
-        <v>29.18465463169433</v>
+        <v>14.16451761643422</v>
       </c>
       <c r="R2">
-        <v>262.661891685249</v>
+        <v>127.480658547908</v>
       </c>
       <c r="S2">
-        <v>0.003430746081149313</v>
+        <v>0.006460785768457834</v>
       </c>
       <c r="T2">
-        <v>0.004681384837476012</v>
+        <v>0.007574029230688357</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.384145666666667</v>
+        <v>0.8775636666666666</v>
       </c>
       <c r="H3">
-        <v>4.152437</v>
+        <v>2.632691</v>
       </c>
       <c r="I3">
-        <v>0.1014617184198512</v>
+        <v>0.1887436506618166</v>
       </c>
       <c r="J3">
-        <v>0.1334061399754118</v>
+        <v>0.2083714858314108</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>243.189949</v>
       </c>
       <c r="O3">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P3">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q3">
-        <v>112.2034380284126</v>
+        <v>71.13822111363989</v>
       </c>
       <c r="R3">
-        <v>1009.830942255713</v>
+        <v>640.243990022759</v>
       </c>
       <c r="S3">
-        <v>0.01318985988237162</v>
+        <v>0.03244789685115398</v>
       </c>
       <c r="T3">
-        <v>0.01799807056577099</v>
+        <v>0.03803892096605817</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.384145666666667</v>
+        <v>0.8775636666666666</v>
       </c>
       <c r="H4">
-        <v>4.152437</v>
+        <v>2.632691</v>
       </c>
       <c r="I4">
-        <v>0.1014617184198512</v>
+        <v>0.1887436506618166</v>
       </c>
       <c r="J4">
-        <v>0.1334061399754118</v>
+        <v>0.2083714858314108</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N4">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O4">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P4">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q4">
-        <v>189.6271502991735</v>
+        <v>148.04824632787</v>
       </c>
       <c r="R4">
-        <v>1706.644352692561</v>
+        <v>1332.43421695083</v>
       </c>
       <c r="S4">
-        <v>0.02229125583216238</v>
+        <v>0.0675284558798151</v>
       </c>
       <c r="T4">
-        <v>0.03041727501617511</v>
+        <v>0.07916413220725826</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.384145666666667</v>
+        <v>0.8775636666666666</v>
       </c>
       <c r="H5">
-        <v>4.152437</v>
+        <v>2.632691</v>
       </c>
       <c r="I5">
-        <v>0.1014617184198512</v>
+        <v>0.1887436506618166</v>
       </c>
       <c r="J5">
-        <v>0.1334061399754118</v>
+        <v>0.2083714858314108</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N5">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O5">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P5">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q5">
-        <v>94.30350247650868</v>
+        <v>72.34176121593251</v>
       </c>
       <c r="R5">
-        <v>565.8210148590521</v>
+        <v>434.050567295595</v>
       </c>
       <c r="S5">
-        <v>0.01108566730162994</v>
+        <v>0.0329968611699698</v>
       </c>
       <c r="T5">
-        <v>0.01008454596398238</v>
+        <v>0.0257883173945029</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.384145666666667</v>
+        <v>0.8775636666666666</v>
       </c>
       <c r="H6">
-        <v>4.152437</v>
+        <v>2.632691</v>
       </c>
       <c r="I6">
-        <v>0.1014617184198512</v>
+        <v>0.1887436506618166</v>
       </c>
       <c r="J6">
-        <v>0.1334061399754118</v>
+        <v>0.2083714858314108</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N6">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O6">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P6">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q6">
-        <v>437.795323743469</v>
+        <v>108.1056461510054</v>
       </c>
       <c r="R6">
-        <v>3940.157913691221</v>
+        <v>972.9508153590489</v>
       </c>
       <c r="S6">
-        <v>0.05146418932253794</v>
+        <v>0.04930965099241986</v>
       </c>
       <c r="T6">
-        <v>0.07022486359200726</v>
+        <v>0.05780608603290305</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.458038666666666</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H7">
-        <v>7.374115999999999</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I7">
-        <v>0.1801810554109115</v>
+        <v>0.5286672739959656</v>
       </c>
       <c r="J7">
-        <v>0.2369096391566985</v>
+        <v>0.5836444564186148</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N7">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O7">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P7">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q7">
-        <v>51.82764450708132</v>
+        <v>39.67453680953423</v>
       </c>
       <c r="R7">
-        <v>466.4488005637319</v>
+        <v>357.0708312858081</v>
       </c>
       <c r="S7">
-        <v>0.006092499312798831</v>
+        <v>0.01809653457536689</v>
       </c>
       <c r="T7">
-        <v>0.008313449386995939</v>
+        <v>0.02121470773990822</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.458038666666666</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H8">
-        <v>7.374115999999999</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I8">
-        <v>0.1801810554109115</v>
+        <v>0.5286672739959656</v>
       </c>
       <c r="J8">
-        <v>0.2369096391566985</v>
+        <v>0.5836444564186148</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>243.189949</v>
       </c>
       <c r="O8">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P8">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q8">
         <v>199.2567659955649</v>
@@ -948,10 +948,10 @@
         <v>1793.310893960084</v>
       </c>
       <c r="S8">
-        <v>0.02342324682983864</v>
+        <v>0.0908859244538931</v>
       </c>
       <c r="T8">
-        <v>0.03196192022375798</v>
+        <v>0.1065462736487287</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.458038666666666</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H9">
-        <v>7.374115999999999</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I9">
-        <v>0.1801810554109115</v>
+        <v>0.5286672739959656</v>
       </c>
       <c r="J9">
-        <v>0.2369096391566985</v>
+        <v>0.5836444564186148</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N9">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O9">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P9">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q9">
-        <v>336.7498659354831</v>
+        <v>414.68024239012</v>
       </c>
       <c r="R9">
-        <v>3030.748793419347</v>
+        <v>3732.12218151108</v>
       </c>
       <c r="S9">
-        <v>0.03958598439712436</v>
+        <v>0.1891458841765474</v>
       </c>
       <c r="T9">
-        <v>0.05401659660897375</v>
+        <v>0.2217371859954922</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.458038666666666</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H10">
-        <v>7.374115999999999</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I10">
-        <v>0.1801810554109115</v>
+        <v>0.5286672739959656</v>
       </c>
       <c r="J10">
-        <v>0.2369096391566985</v>
+        <v>0.5836444564186148</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N10">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O10">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P10">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q10">
-        <v>167.4691190903227</v>
+        <v>202.6278582828701</v>
       </c>
       <c r="R10">
-        <v>1004.814714541936</v>
+        <v>1215.76714969722</v>
       </c>
       <c r="S10">
-        <v>0.01968651098610916</v>
+        <v>0.09242356277407909</v>
       </c>
       <c r="T10">
-        <v>0.0179086670660477</v>
+        <v>0.07223257264596648</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.458038666666666</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H11">
-        <v>7.374115999999999</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I11">
-        <v>0.1801810554109115</v>
+        <v>0.5286672739959656</v>
       </c>
       <c r="J11">
-        <v>0.2369096391566985</v>
+        <v>0.5836444564186148</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N11">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O11">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P11">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q11">
-        <v>777.4599594266919</v>
+        <v>302.8018005046804</v>
       </c>
       <c r="R11">
-        <v>6997.139634840227</v>
+        <v>2725.216204542124</v>
       </c>
       <c r="S11">
-        <v>0.09139281388504056</v>
+        <v>0.1381153680160791</v>
       </c>
       <c r="T11">
-        <v>0.1247090058709231</v>
+        <v>0.1619137163885192</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.799863999999999</v>
+        <v>1.313898</v>
       </c>
       <c r="H12">
-        <v>19.599728</v>
+        <v>2.627796</v>
       </c>
       <c r="I12">
-        <v>0.7183572261692374</v>
+        <v>0.2825890753422177</v>
       </c>
       <c r="J12">
-        <v>0.6296842208678898</v>
+        <v>0.2079840577499744</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N12">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O12">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P12">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q12">
-        <v>206.629730645576</v>
+        <v>21.207271989608</v>
       </c>
       <c r="R12">
-        <v>1239.778383873456</v>
+        <v>127.243631937648</v>
       </c>
       <c r="S12">
-        <v>0.02428996154339938</v>
+        <v>0.009673159705721497</v>
       </c>
       <c r="T12">
-        <v>0.02209639049980868</v>
+        <v>0.007559946729899537</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.799863999999999</v>
+        <v>1.313898</v>
       </c>
       <c r="H13">
-        <v>19.599728</v>
+        <v>2.627796</v>
       </c>
       <c r="I13">
-        <v>0.7183572261692374</v>
+        <v>0.2825890753422177</v>
       </c>
       <c r="J13">
-        <v>0.6296842208678898</v>
+        <v>0.2079840577499744</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>243.189949</v>
       </c>
       <c r="O13">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P13">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q13">
-        <v>794.4094754556453</v>
+        <v>106.508929203734</v>
       </c>
       <c r="R13">
-        <v>4766.456852733872</v>
+        <v>639.053575222404</v>
       </c>
       <c r="S13">
-        <v>0.09338528172224975</v>
+        <v>0.04858134901924022</v>
       </c>
       <c r="T13">
-        <v>0.08495186985712669</v>
+        <v>0.03796819465669302</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.799863999999999</v>
+        <v>1.313898</v>
       </c>
       <c r="H14">
-        <v>19.599728</v>
+        <v>2.627796</v>
       </c>
       <c r="I14">
-        <v>0.7183572261692374</v>
+        <v>0.2825890753422177</v>
       </c>
       <c r="J14">
-        <v>0.6296842208678898</v>
+        <v>0.2079840577499744</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N14">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O14">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P14">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q14">
-        <v>1342.575661212531</v>
+        <v>221.65946716158</v>
       </c>
       <c r="R14">
-        <v>8055.453967275183</v>
+        <v>1329.95680296948</v>
       </c>
       <c r="S14">
-        <v>0.157823905969722</v>
+        <v>0.1011043488851262</v>
       </c>
       <c r="T14">
-        <v>0.1435711888749252</v>
+        <v>0.07901694120491332</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.799863999999999</v>
+        <v>1.313898</v>
       </c>
       <c r="H15">
-        <v>19.599728</v>
+        <v>2.627796</v>
       </c>
       <c r="I15">
-        <v>0.7183572261692374</v>
+        <v>0.2825890753422177</v>
       </c>
       <c r="J15">
-        <v>0.6296842208678898</v>
+        <v>0.2079840577499744</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N15">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O15">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P15">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q15">
-        <v>667.6764745570721</v>
+        <v>108.310882718205</v>
       </c>
       <c r="R15">
-        <v>2670.705898228288</v>
+        <v>433.24353087282</v>
       </c>
       <c r="S15">
-        <v>0.07848742695329543</v>
+        <v>0.04940326445165914</v>
       </c>
       <c r="T15">
-        <v>0.04759960425589901</v>
+        <v>0.02574036880743131</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.799863999999999</v>
+        <v>1.313898</v>
       </c>
       <c r="H16">
-        <v>19.599728</v>
+        <v>2.627796</v>
       </c>
       <c r="I16">
-        <v>0.7183572261692374</v>
+        <v>0.2825890753422177</v>
       </c>
       <c r="J16">
-        <v>0.6296842208678898</v>
+        <v>0.2079840577499744</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N16">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O16">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P16">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q16">
-        <v>3099.626531977704</v>
+        <v>161.856965667274</v>
       </c>
       <c r="R16">
-        <v>18597.75919186622</v>
+        <v>971.141794003644</v>
       </c>
       <c r="S16">
-        <v>0.3643706499805709</v>
+        <v>0.07382695328047059</v>
       </c>
       <c r="T16">
-        <v>0.3314651673801301</v>
+        <v>0.05769860635103721</v>
       </c>
     </row>
   </sheetData>
